--- a/biology/Botanique/Pulperie/Pulperie.xlsx
+++ b/biology/Botanique/Pulperie/Pulperie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une pulperie est une usine de fabrication de pâte à papier à partir de bois. Le terme s'applique principalement aux usines construites au début du XXe siècle au Québec dont la principale caractéristique est d'être installé sur un cours d'eau.
 Pulperie de Chicoutimi
